--- a/xls_reports/covid_19_data.xlsx
+++ b/xls_reports/covid_19_data.xlsx
@@ -34,39 +34,39 @@
     <t>Emilia-Romagna</t>
   </si>
   <si>
+    <t>Lazio</t>
+  </si>
+  <si>
     <t>Piemonte</t>
   </si>
   <si>
-    <t>Lazio</t>
+    <t>Sicilia</t>
+  </si>
+  <si>
+    <t>Toscana</t>
   </si>
   <si>
     <t>Puglia</t>
   </si>
   <si>
-    <t>Toscana</t>
-  </si>
-  <si>
-    <t>Sicilia</t>
+    <t>Marche</t>
   </si>
   <si>
     <t>Friuli Venezia Giulia</t>
   </si>
   <si>
-    <t>Marche</t>
-  </si>
-  <si>
     <t>Liguria</t>
   </si>
   <si>
+    <t>Calabria</t>
+  </si>
+  <si>
     <t>Abruzzo</t>
   </si>
   <si>
     <t>P.A. Bolzano</t>
   </si>
   <si>
-    <t>Calabria</t>
-  </si>
-  <si>
     <t>Sardegna</t>
   </si>
   <si>
@@ -85,7 +85,7 @@
     <t>Valle d'Aosta</t>
   </si>
   <si>
-    <t>2021-06-10T17:00:00</t>
+    <t>2021-10-05T17:00:00</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>838693</v>
+        <v>885208</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>422006</v>
+        <v>457650</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>385321</v>
+        <v>425088</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>361871</v>
+        <v>385921</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>343947</v>
+        <v>379744</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>251880</v>
+        <v>300126</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -552,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>242960</v>
+        <v>283289</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>228621</v>
+        <v>269228</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -580,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>107299</v>
+        <v>114178</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -594,7 +594,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>103301</v>
+        <v>114038</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>103010</v>
+        <v>113011</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>74399</v>
+        <v>84287</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -636,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>73141</v>
+        <v>81415</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -650,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>67950</v>
+        <v>77169</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>56956</v>
+        <v>75477</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>56619</v>
+        <v>63958</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -692,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>45640</v>
+        <v>48494</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>26596</v>
+        <v>30300</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>13625</v>
+        <v>14518</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -734,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>11649</v>
+        <v>12171</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>

--- a/xls_reports/covid_19_data.xlsx
+++ b/xls_reports/covid_19_data.xlsx
@@ -34,39 +34,39 @@
     <t>Emilia-Romagna</t>
   </si>
   <si>
+    <t>Piemonte</t>
+  </si>
+  <si>
     <t>Lazio</t>
   </si>
   <si>
-    <t>Piemonte</t>
+    <t>Puglia</t>
+  </si>
+  <si>
+    <t>Toscana</t>
   </si>
   <si>
     <t>Sicilia</t>
   </si>
   <si>
-    <t>Toscana</t>
-  </si>
-  <si>
-    <t>Puglia</t>
+    <t>Friuli Venezia Giulia</t>
+  </si>
+  <si>
+    <t>Liguria</t>
   </si>
   <si>
     <t>Marche</t>
   </si>
   <si>
-    <t>Friuli Venezia Giulia</t>
-  </si>
-  <si>
-    <t>Liguria</t>
+    <t>Abruzzo</t>
+  </si>
+  <si>
+    <t>P.A. Bolzano</t>
   </si>
   <si>
     <t>Calabria</t>
   </si>
   <si>
-    <t>Abruzzo</t>
-  </si>
-  <si>
-    <t>P.A. Bolzano</t>
-  </si>
-  <si>
     <t>Sardegna</t>
   </si>
   <si>
@@ -85,7 +85,7 @@
     <t>Valle d'Aosta</t>
   </si>
   <si>
-    <t>2021-10-05T17:00:00</t>
+    <t>2021-05-03T17:00:00</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>885208</v>
+        <v>808683</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>457650</v>
+        <v>396053</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>425088</v>
+        <v>371776</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>385921</v>
+        <v>347320</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>379744</v>
+        <v>326470</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>300126</v>
+        <v>237116</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -552,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>283289</v>
+        <v>229037</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>269228</v>
+        <v>210993</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -580,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>114178</v>
+        <v>105454</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -594,7 +594,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>114038</v>
+        <v>99972</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>113011</v>
+        <v>98155</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>84287</v>
+        <v>71640</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -636,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>81415</v>
+        <v>71354</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -650,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>77169</v>
+        <v>60925</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>75477</v>
+        <v>54876</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>63958</v>
+        <v>54638</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -692,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>48494</v>
+        <v>44132</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>30300</v>
+        <v>24258</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>14518</v>
+        <v>13309</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -734,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>12171</v>
+        <v>11041</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>

--- a/xls_reports/covid_19_data.xlsx
+++ b/xls_reports/covid_19_data.xlsx
@@ -31,48 +31,48 @@
     <t>Campania</t>
   </si>
   <si>
+    <t>Lazio</t>
+  </si>
+  <si>
     <t>Emilia-Romagna</t>
   </si>
   <si>
     <t>Piemonte</t>
   </si>
   <si>
-    <t>Lazio</t>
+    <t>Toscana</t>
+  </si>
+  <si>
+    <t>Sicilia</t>
   </si>
   <si>
     <t>Puglia</t>
   </si>
   <si>
-    <t>Toscana</t>
-  </si>
-  <si>
-    <t>Sicilia</t>
+    <t>Marche</t>
+  </si>
+  <si>
+    <t>Liguria</t>
   </si>
   <si>
     <t>Friuli Venezia Giulia</t>
   </si>
   <si>
-    <t>Liguria</t>
-  </si>
-  <si>
-    <t>Marche</t>
-  </si>
-  <si>
     <t>Abruzzo</t>
   </si>
   <si>
+    <t>Calabria</t>
+  </si>
+  <si>
+    <t>Umbria</t>
+  </si>
+  <si>
+    <t>Sardegna</t>
+  </si>
+  <si>
     <t>P.A. Bolzano</t>
   </si>
   <si>
-    <t>Calabria</t>
-  </si>
-  <si>
-    <t>Sardegna</t>
-  </si>
-  <si>
-    <t>Umbria</t>
-  </si>
-  <si>
     <t>P.A. Trento</t>
   </si>
   <si>
@@ -85,7 +85,7 @@
     <t>Valle d'Aosta</t>
   </si>
   <si>
-    <t>2021-05-03T17:00:00</t>
+    <t>2022-04-05T17:00:00</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>808683</v>
+        <v>2575651</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>396053</v>
+        <v>1435599</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>371776</v>
+        <v>1324791</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>347320</v>
+        <v>1301617</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>326470</v>
+        <v>1064329</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>237116</v>
+        <v>1005371</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -552,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>229037</v>
+        <v>1000371</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>210993</v>
+        <v>947421</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -580,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>105454</v>
+        <v>400611</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -594,7 +594,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>99972</v>
+        <v>391943</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>98155</v>
+        <v>339378</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>71640</v>
+        <v>324619</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -636,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>71354</v>
+        <v>308883</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -650,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>60925</v>
+        <v>240543</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>54876</v>
+        <v>237800</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>54638</v>
+        <v>200602</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -692,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>44132</v>
+        <v>151385</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>24258</v>
+        <v>110575</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>13309</v>
+        <v>50737</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -734,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>11041</v>
+        <v>32947</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
